--- a/pred_ohlcv/54_21/2020-01-20 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 MBL ohlcv.xlsx
@@ -12768,7 +12768,7 @@
         <v>-13333730.09280065</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-13358381.09280065</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-15066767.46840065</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-15026399.46840065</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-11790010.66350066</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-11827106.66350066</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-11664429.78538492</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-11710359.67180066</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-13807300.46030066</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-14347227.23890066</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-23124070.45470066</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-22945442.99960066</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-25299216.95410066</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-27195184.07329339</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-27243920.07329339</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-27243920.07329339</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-27261443.07329339</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-27206923.07329339</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-27224052.07329339</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-27050002.69779339</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-27123945.31029339</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-32193908.97029339</v>
       </c>
       <c r="H1101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-32306904.08349339</v>
       </c>
       <c r="H1102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-32590637.61489339</v>
       </c>
       <c r="H1103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-32564329.61489339</v>
       </c>
       <c r="H1104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-32588067.61489339</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-32621341.61489339</v>
       </c>
       <c r="H1106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-32573039.61489339</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-32492719.61489339</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-32492719.61489339</v>
       </c>
       <c r="H1118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-32492719.61489339</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-32421322.61489339</v>
       </c>
       <c r="H1128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-32470280.61489339</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-32470280.61489339</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-32470280.61489339</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-32451105.61489339</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-32451105.61489339</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-32428640.61489339</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-32502274.61489339</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-32481112.61489339</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-32445884.61489339</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-32406228.61489339</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-32376198.61489339</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 MBL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 MBL ohlcv.xlsx
@@ -12768,7 +12768,7 @@
         <v>-13333730.09280065</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-13358381.09280065</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-15066767.46840065</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-15026399.46840065</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-11827106.66350066</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-11710359.67180066</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-14347227.23890066</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-14308926.23890066</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-22945442.99960066</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-23997437.59650066</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-23997437.59650066</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-24036971.59650066</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-24073302.59650066</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-24110477.59650066</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-24071956.59650066</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-24115753.59650066</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-24096127.59650066</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-24096127.59650066</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-24023523.61660066</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-24061103.61660066</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-24090882.76810066</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-24069799.76810066</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-24098674.76810066</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-24098674.76810066</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-24382975.47140066</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-23976434.18692929</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-24008556.28949339</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-24095459.12649339</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-24117152.12649339</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-24143211.12649339</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-24166199.12649339</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-24197306.12649339</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-24155589.12649339</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-24188252.12649339</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-24234958.12649339</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-24280107.12649339</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-24240423.12649339</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-24287997.12649339</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-24287997.12649339</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-24249584.12649339</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-24196070.12649339</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-24176058.12649339</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-24176058.12649339</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-24151808.12649339</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-24130666.12649339</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-24130666.12649339</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-24163827.12649339</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-24120527.12649339</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-24155121.12649339</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-24176276.12649339</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-24176276.12649339</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-24203398.12649339</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-24257832.12649339</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-24287477.12649339</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-24307520.12649339</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-24307520.12649339</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-24275492.12649339</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-24439861.11429339</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-24437461.11429339</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-24593743.11429339</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-24682615.19969339</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-24580339.19969339</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-24611691.19969339</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-24638092.19969339</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-24817046.47769339</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-24822119.68569339</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-24822119.68569339</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-24759072.91449339</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-24975233.84799339</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-24939821.84799339</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-24939821.84799339</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-24879721.53559339</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-24930779.53559339</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-25365595.59329339</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-25365595.59329339</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-25322749.59329339</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-25322749.59329339</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-25369648.59329339</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-25333751.26829339</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-25333751.26829339</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-25375589.26829339</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-25375589.26829339</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-25375589.26829339</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-25375589.26829339</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-25341415.26829339</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-25363997.26829339</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-25408282.14749339</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-25672182.40039339</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-25672182.40039339</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-27195184.07329339</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-27243920.07329339</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-27243920.07329339</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-27261443.07329339</v>
       </c>
       <c r="H993">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-27206923.07329339</v>
       </c>
       <c r="H994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-27224052.07329339</v>
       </c>
       <c r="H995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-27050002.69779339</v>
       </c>
       <c r="H996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-27123945.31029339</v>
       </c>
       <c r="H997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-32564329.61489339</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-32588067.61489339</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-32621341.61489339</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-32599185.61489339</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-32573039.61489339</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-32541759.61489339</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-32492719.61489339</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-32492719.61489339</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-32492719.61489339</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-32461278.61489339</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-32421322.61489339</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-32421322.61489339</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-32388214.61489339</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-32412554.61489339</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-32451217.61489339</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-32426085.61489339</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-32426085.61489339</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-32426085.61489339</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-32426085.61489339</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-32406108.61489339</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-32406108.61489339</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-32423733.61489339</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-32450929.61489339</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-32410145.61489339</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-32433845.61489339</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-32433845.61489339</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
